--- a/other/Книга.xlsx
+++ b/other/Книга.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C649E1C-6DF9-4221-8C6F-AC3E719D5C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Piano\PianoProject\other\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Users</t>
   </si>
@@ -103,12 +107,15 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>PianoModel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -138,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -282,11 +289,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,9 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,14 +345,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,18 +405,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,9 +413,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -687,352 +762,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="38">
+        <v>4</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6">
+      <c r="C18" s="30"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7">
-        <v>2</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7">
+      <c r="C21" s="21"/>
+      <c r="D21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="19" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="33"/>
+      <c r="B25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6">
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="34"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
+        <v>2</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7">
+      <c r="C28" s="21"/>
+      <c r="D28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7">
         <v>3</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3">
+      <c r="C29" s="21"/>
+      <c r="D29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13" t="s">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="33"/>
+      <c r="B32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6">
+      <c r="C32" s="13"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="34"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
+  <mergeCells count="39">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
@@ -1045,37 +1144,14 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
